--- a/Team-Data/2012-13/11-11-2012-13.xlsx
+++ b/Team-Data/2012-13/11-11-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,109 +733,109 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>36.6</v>
+        <v>38.3</v>
       </c>
       <c r="J2" t="n">
-        <v>81.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="K2" t="n">
-        <v>0.449</v>
+        <v>0.455</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M2" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="O2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="R2" t="n">
         <v>10.8</v>
       </c>
-      <c r="P2" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10.6</v>
-      </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.8</v>
+        <v>-0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
         <v>4</v>
@@ -783,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
@@ -792,34 +859,34 @@
         <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC2" t="n">
         <v>17</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -926,37 +993,37 @@
         <v>-2.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,37 +1032,37 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -1030,121 +1097,121 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>34.4</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>0.437</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.378</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.68</v>
       </c>
       <c r="R4" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S4" t="n">
-        <v>31.2</v>
+        <v>28.3</v>
       </c>
       <c r="T4" t="n">
-        <v>42.6</v>
+        <v>39.5</v>
       </c>
       <c r="U4" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V4" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>93</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
@@ -1153,22 +1220,22 @@
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1180,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
@@ -1305,16 +1372,16 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL5" t="n">
         <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
@@ -1323,13 +1390,13 @@
         <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>10</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>11</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1338,31 +1405,31 @@
         <v>28</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
       </c>
       <c r="AV5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
         <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -1472,28 +1539,28 @@
         <v>5.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1505,28 +1572,28 @@
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
         <v>9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1535,19 +1602,19 @@
         <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -1576,94 +1643,94 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
         <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.439</v>
+        <v>0.444</v>
       </c>
       <c r="L7" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M7" t="n">
         <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>0.385</v>
+        <v>0.399</v>
       </c>
       <c r="O7" t="n">
         <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="S7" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="T7" t="n">
-        <v>40.9</v>
+        <v>41.7</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="V7" t="n">
-        <v>17.9</v>
+        <v>18.3</v>
       </c>
       <c r="W7" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
@@ -1672,13 +1739,13 @@
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -1696,40 +1763,40 @@
         <v>29</v>
       </c>
       <c r="AR7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW7" t="n">
         <v>11</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -1839,52 +1906,52 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>2</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,19 +1963,19 @@
         <v>22</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>27</v>
       </c>
       <c r="BA8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -2021,31 +2088,31 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="n">
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN9" t="n">
         <v>29</v>
@@ -2054,7 +2121,7 @@
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2075,16 +2142,16 @@
         <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
         <v>17</v>
@@ -2093,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -2224,16 +2291,16 @@
         <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
@@ -2251,28 +2318,28 @@
         <v>30</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA10" t="n">
         <v>9</v>
       </c>
-      <c r="BA10" t="n">
-        <v>6</v>
-      </c>
       <c r="BB10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -2388,16 +2455,16 @@
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2406,22 +2473,22 @@
         <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>19</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>13</v>
@@ -2433,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>22</v>
@@ -2442,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
@@ -2454,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2597,13 +2664,13 @@
         <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
@@ -2621,22 +2688,22 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -2752,16 +2819,16 @@
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2770,7 +2837,7 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
@@ -2779,13 +2846,13 @@
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
         <v>4</v>
@@ -2815,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="K14" t="n">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>20.2</v>
       </c>
       <c r="P14" t="n">
-        <v>23.7</v>
+        <v>26.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.777</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T14" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.1</v>
+        <v>104.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>11</v>
@@ -2946,37 +3013,37 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
         <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>25</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -2988,22 +3055,22 @@
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -3032,124 +3099,124 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J15" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O15" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P15" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="R15" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>47.3</v>
+        <v>46.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>24.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
         <v>7</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR15" t="n">
         <v>3</v>
@@ -3161,31 +3228,31 @@
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC15" t="n">
         <v>10</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>9</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -3214,133 +3281,133 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
         <v>86.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.39</v>
+        <v>0.329</v>
       </c>
       <c r="O16" t="n">
-        <v>19.8</v>
+        <v>21</v>
       </c>
       <c r="P16" t="n">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.802</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="S16" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>44.5</v>
+        <v>44.8</v>
       </c>
       <c r="U16" t="n">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="V16" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W16" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC16" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z16" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>6</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP16" t="n">
         <v>5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>7</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3349,25 +3416,25 @@
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
         <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="n">
         <v>5</v>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.714</v>
+        <v>0.833</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="J17" t="n">
         <v>78.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="L17" t="n">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>22.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.412</v>
+        <v>0.429</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.829</v>
       </c>
       <c r="R17" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
-        <v>31.4</v>
+        <v>32</v>
       </c>
       <c r="T17" t="n">
-        <v>39.6</v>
+        <v>39</v>
       </c>
       <c r="U17" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="V17" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.4</v>
+        <v>107.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
         <v>23</v>
       </c>
       <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>2</v>
       </c>
-      <c r="AL17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS17" t="n">
         <v>10</v>
       </c>
-      <c r="AP17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>13</v>
-      </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>0.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
@@ -3671,22 +3738,22 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ18" t="n">
         <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3707,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="AU18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV18" t="n">
         <v>19</v>
@@ -3722,10 +3789,10 @@
         <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -3838,34 +3905,34 @@
         <v>2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH19" t="n">
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3874,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
@@ -3883,16 +3950,16 @@
         <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU19" t="n">
         <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW19" t="n">
         <v>19</v>
@@ -3901,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3913,7 +3980,7 @@
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>10</v>
@@ -4038,16 +4105,16 @@
         <v>29</v>
       </c>
       <c r="AJ20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
         <v>26</v>
       </c>
-      <c r="AK20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>27</v>
-      </c>
       <c r="AM20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
         <v>28</v>
@@ -4059,10 +4126,10 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>9</v>
@@ -4077,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="AW20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX20" t="n">
         <v>7</v>
@@ -4089,13 +4156,13 @@
         <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4217,13 +4284,13 @@
         <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,34 +4302,34 @@
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4271,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="BA21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -4306,118 +4373,118 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>35.7</v>
+        <v>35</v>
       </c>
       <c r="J22" t="n">
-        <v>73.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.413</v>
+        <v>0.406</v>
       </c>
       <c r="O22" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="P22" t="n">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.839</v>
+        <v>0.835</v>
       </c>
       <c r="R22" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="T22" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="W22" t="n">
         <v>6.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4426,25 +4493,25 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>1</v>
@@ -4453,13 +4520,13 @@
         <v>23</v>
       </c>
       <c r="BA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB22" t="n">
         <v>7</v>
       </c>
-      <c r="BB22" t="n">
-        <v>6</v>
-      </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -4488,52 +4555,52 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35.2</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.424</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="M23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.37</v>
+        <v>0.426</v>
       </c>
       <c r="O23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="P23" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="R23" t="n">
         <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T23" t="n">
         <v>42.2</v>
@@ -4542,61 +4609,61 @@
         <v>21.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>87.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="n">
         <v>22</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
@@ -4605,7 +4672,7 @@
         <v>28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>19</v>
@@ -4617,19 +4684,19 @@
         <v>17</v>
       </c>
       <c r="AU23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>0.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
         <v>11</v>
@@ -4778,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>25</v>
@@ -4787,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>14</v>
@@ -4802,25 +4869,25 @@
         <v>24</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -4936,10 +5003,10 @@
         <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -4984,7 +5051,7 @@
         <v>25</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>10</v>
@@ -4993,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AY25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-5.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>24</v>
@@ -5127,13 +5194,13 @@
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5142,25 +5209,25 @@
         <v>6</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>20</v>
       </c>
       <c r="AR26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS26" t="n">
         <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>23</v>
@@ -5169,10 +5236,10 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>8</v>
@@ -5187,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -5216,139 +5283,139 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="I27" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J27" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.401</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>18.4</v>
+        <v>17.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.295</v>
+        <v>0.292</v>
       </c>
       <c r="O27" t="n">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="P27" t="n">
-        <v>19.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S27" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="T27" t="n">
-        <v>42.4</v>
+        <v>43</v>
       </c>
       <c r="U27" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>1</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>8</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
@@ -5363,13 +5430,13 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -5491,40 +5558,40 @@
         <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO28" t="n">
         <v>12</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>13</v>
       </c>
       <c r="AP28" t="n">
         <v>15</v>
       </c>
       <c r="AQ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS28" t="n">
         <v>14</v>
       </c>
-      <c r="AR28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>13</v>
-      </c>
       <c r="AT28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5533,16 +5600,16 @@
         <v>24</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA28" t="n">
         <v>19</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
         <v>28</v>
@@ -5682,22 +5749,22 @@
         <v>28</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>6</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5718,7 +5785,7 @@
         <v>11</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>23</v>
@@ -5727,10 +5794,10 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -5846,28 +5913,28 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
         <v>25</v>
@@ -5876,7 +5943,7 @@
         <v>20</v>
       </c>
       <c r="AP30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
@@ -5888,16 +5955,16 @@
         <v>10</v>
       </c>
       <c r="AT30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV30" t="n">
         <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
         <v>1</v>
@@ -5912,7 +5979,7 @@
         <v>19</v>
       </c>
       <c r="BB30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6046,7 +6113,7 @@
         <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
         <v>3</v>
@@ -6055,7 +6122,7 @@
         <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP31" t="n">
         <v>30</v>
@@ -6067,19 +6134,19 @@
         <v>24</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
       </c>
       <c r="AU31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
         <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6094,7 +6161,7 @@
         <v>29</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-11-2012-13</t>
+          <t>2012-11-11</t>
         </is>
       </c>
     </row>
